--- a/seasonal and trend variations/seasonal_variations.xlsx
+++ b/seasonal and trend variations/seasonal_variations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\TimeSeries-Class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\GitHub\Time-Series-Analysis\seasonal and trend variations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22AC98F-24ED-4706-BE27-D3D1487382DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA593DE8-9542-483D-8666-0132BF0C9E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="933" activeTab="3" xr2:uid="{D82C3CED-3772-4246-B680-140A6B70C50A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="933" firstSheet="3" activeTab="4" xr2:uid="{D82C3CED-3772-4246-B680-140A6B70C50A}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Average Method Seasonal" sheetId="1" r:id="rId1"/>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92397E24-59A3-4888-AFC2-73AAE28A65B1}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1939,6 +1939,10 @@
         <f t="shared" si="0"/>
         <v>35.636842105263163</v>
       </c>
+      <c r="H5">
+        <f xml:space="preserve"> INTERCEPT(Demand,period)</f>
+        <v>25.115789473684213</v>
+      </c>
       <c r="L5" s="25" t="s">
         <v>1</v>
       </c>
@@ -2138,6 +2142,10 @@
         <f t="shared" si="0"/>
         <v>61.92973147153598</v>
       </c>
+      <c r="H12">
+        <f>(30+34+40+54+80)/5</f>
+        <v>47.6</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -2158,6 +2166,10 @@
         <f t="shared" si="0"/>
         <v>60.344210526315791</v>
       </c>
+      <c r="I13">
+        <f>H12/AVERAGE(Demand)</f>
+        <v>0.85</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
@@ -2219,6 +2231,10 @@
       <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>75.291879699248128</v>
+      </c>
+      <c r="K16">
+        <f>M5*E3</f>
+        <v>23.848571428571432</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2381,21 +2397,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8DE8CC-7DCE-4F29-831C-AFB36E1752EA}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
